--- a/branches/riziv/StructureDefinition-MedRecordTreatmentLine.xlsx
+++ b/branches/riziv/StructureDefinition-MedRecordTreatmentLine.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$39</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AM$45</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1364" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1568" uniqueCount="314">
   <si>
     <t>Path</t>
   </si>
@@ -499,10 +499,93 @@
     <t>MedicationStatement.extension</t>
   </si>
   <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>treatmentPlan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {event-basedOn}
+</t>
+  </si>
+  <si>
+    <t>Fulfills plan, proposal or order</t>
+  </si>
+  <si>
+    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1
+</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>.outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>ORC in proximity to EVN segment</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.id</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.extension</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.url</t>
+  </si>
+  <si>
+    <t>identifies the meaning of the extension</t>
+  </si>
+  <si>
+    <t>Source of the definition for the extension code - a logical name or a URL.</t>
+  </si>
+  <si>
+    <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/StructureDefinition/event-basedOn</t>
+  </si>
+  <si>
+    <t>Extension.url</t>
+  </si>
+  <si>
+    <t>MedicationStatement.extension.value[x]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference
+</t>
+  </si>
+  <si>
+    <t>Value of extension</t>
+  </si>
+  <si>
+    <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/extensibility.html) for a list).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>Extension.value[x]</t>
+  </si>
+  <si>
+    <t>valueReference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan)
+</t>
   </si>
   <si>
     <t>MedicationStatement.modifierExtension</t>
@@ -556,13 +639,7 @@
     <t>Fulfils plan, proposal or order</t>
   </si>
   <si>
-    <t>A plan, proposal or order that is fulfilled in whole or in part by this event.</t>
-  </si>
-  <si>
     <t>Allows tracing of authorization for the event and tracking whether proposals/recommendations were acted upon.</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
   </si>
   <si>
     <t>.outboundRelationship[typeCode=FLFS].target[classCode=SBADM or PROC or PCPR or OBS, moodCode=RQO orPLAN or PRP]</t>
@@ -691,13 +768,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medication-codes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">type:$this}
-</t>
-  </si>
-  <si>
-    <t>closed</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -1088,7 +1158,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM39"/>
+  <dimension ref="A1:AM45"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1097,7 +1167,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="38.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.8203125" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="27.47265625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
@@ -1135,7 +1205,7 @@
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="140.7265625" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="28.1484375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="32.0234375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2924,7 +2994,7 @@
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -2946,14 +3016,12 @@
         <v>70</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>151</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>73</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="M17" s="2"/>
       <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>40</v>
@@ -2990,19 +3058,17 @@
         <v>40</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="AB17" s="2"/>
       <c r="AC17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3020,7 +3086,7 @@
         <v>40</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>149</v>
+        <v>40</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>40</v>
@@ -3029,45 +3095,43 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>153</v>
-      </c>
-      <c r="B18" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>154</v>
+      </c>
       <c r="C18" t="s" s="2">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>70</v>
+        <v>155</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>156</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>40</v>
       </c>
@@ -3115,7 +3179,7 @@
         <v>40</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>41</v>
@@ -3124,27 +3188,27 @@
         <v>42</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>40</v>
+        <v>158</v>
       </c>
       <c r="AI18" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>40</v>
+        <v>159</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>40</v>
+        <v>161</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3155,29 +3219,27 @@
         <v>41</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>159</v>
+        <v>52</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>160</v>
+        <v>64</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>40</v>
@@ -3226,36 +3288,36 @@
         <v>40</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>158</v>
+        <v>66</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH19" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>67</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" hidden="true">
+      <c r="A20" t="s" s="2">
         <v>163</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM19" t="s" s="2">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="2">
-        <v>166</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3266,30 +3328,28 @@
         <v>41</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>167</v>
+        <v>70</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>168</v>
+        <v>151</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>169</v>
+        <v>152</v>
       </c>
       <c r="M20" s="2"/>
-      <c r="N20" t="s" s="2">
-        <v>170</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
         <v>40</v>
       </c>
@@ -3325,19 +3385,19 @@
         <v>40</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>40</v>
+        <v>74</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AC20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>40</v>
+        <v>76</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>166</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>41</v>
@@ -3349,13 +3409,13 @@
         <v>40</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>171</v>
+        <v>40</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>172</v>
+        <v>40</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>40</v>
@@ -3366,7 +3426,7 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3374,10 +3434,10 @@
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>40</v>
@@ -3386,27 +3446,27 @@
         <v>40</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>174</v>
+        <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="N21" s="2"/>
       <c r="O21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>40</v>
+        <v>168</v>
       </c>
       <c r="R21" t="s" s="2">
         <v>40</v>
@@ -3448,25 +3508,25 @@
         <v>40</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>178</v>
+        <v>40</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>179</v>
+        <v>149</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3475,9 +3535,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3491,26 +3551,24 @@
         <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>183</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" t="s" s="2">
         <v>40</v>
@@ -3535,34 +3593,32 @@
         <v>40</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>184</v>
+        <v>40</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>185</v>
+        <v>40</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>186</v>
+        <v>40</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB22" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB22" s="2"/>
       <c r="AC22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>50</v>
@@ -3574,35 +3630,37 @@
         <v>62</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>187</v>
+        <v>40</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>188</v>
+        <v>149</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>189</v>
+        <v>40</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B23" s="2"/>
+        <v>170</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>177</v>
+      </c>
       <c r="C23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -3611,17 +3669,15 @@
         <v>40</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>194</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>40</v>
@@ -3646,13 +3702,13 @@
         <v>40</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>195</v>
+        <v>40</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>196</v>
+        <v>40</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>40</v>
@@ -3670,13 +3726,13 @@
         <v>40</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>40</v>
@@ -3685,10 +3741,10 @@
         <v>62</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>197</v>
+        <v>40</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3697,41 +3753,45 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G24" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H24" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="H24" t="s" s="2">
-        <v>40</v>
-      </c>
       <c r="I24" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>191</v>
+        <v>70</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>201</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
+        <v>181</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>182</v>
+      </c>
       <c r="O24" t="s" s="2">
         <v>40</v>
       </c>
@@ -3755,13 +3815,13 @@
         <v>40</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>130</v>
+        <v>40</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>202</v>
+        <v>40</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>203</v>
+        <v>40</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>40</v>
@@ -3779,36 +3839,36 @@
         <v>40</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>199</v>
+        <v>183</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>204</v>
+        <v>149</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -3816,13 +3876,13 @@
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3831,16 +3891,16 @@
         <v>51</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>207</v>
+        <v>185</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
@@ -3866,35 +3926,37 @@
         <v>40</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB25" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>206</v>
+        <v>184</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>40</v>
@@ -3903,13 +3965,13 @@
         <v>62</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>215</v>
+        <v>189</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>216</v>
+        <v>190</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>217</v>
+        <v>191</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>40</v>
@@ -3917,11 +3979,9 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B26" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3930,7 +3990,7 @@
         <v>41</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>51</v>
@@ -3942,18 +4002,18 @@
         <v>51</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N26" s="2"/>
+        <v>157</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="O26" t="s" s="2">
         <v>40</v>
       </c>
@@ -3977,13 +4037,13 @@
         <v>40</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>211</v>
+        <v>40</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>212</v>
+        <v>40</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4001,13 +4061,13 @@
         <v>40</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>206</v>
+        <v>192</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>40</v>
@@ -4016,25 +4076,23 @@
         <v>62</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>215</v>
+        <v>159</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>216</v>
+        <v>196</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM26" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="B27" t="s" s="2">
-        <v>219</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4043,10 +4101,10 @@
         <v>41</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H27" t="s" s="2">
         <v>40</v>
@@ -4055,18 +4113,18 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>220</v>
+        <v>198</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>210</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>200</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" t="s" s="2">
+        <v>201</v>
+      </c>
       <c r="O27" t="s" s="2">
         <v>40</v>
       </c>
@@ -4114,13 +4172,13 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>40</v>
@@ -4129,13 +4187,13 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>215</v>
+        <v>202</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>216</v>
+        <v>203</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>217</v>
+        <v>40</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>40</v>
@@ -4143,7 +4201,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4160,21 +4218,23 @@
         <v>51</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>222</v>
+        <v>126</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>224</v>
-      </c>
-      <c r="M28" s="2"/>
+        <v>206</v>
+      </c>
+      <c r="M28" t="s" s="2">
+        <v>207</v>
+      </c>
       <c r="N28" s="2"/>
       <c r="O28" t="s" s="2">
         <v>40</v>
@@ -4199,13 +4259,13 @@
         <v>40</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>40</v>
+        <v>208</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>40</v>
+        <v>209</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>40</v>
+        <v>210</v>
       </c>
       <c r="Z28" t="s" s="2">
         <v>40</v>
@@ -4223,7 +4283,7 @@
         <v>40</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>221</v>
+        <v>204</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>50</v>
@@ -4238,21 +4298,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>228</v>
+        <v>40</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4263,27 +4323,29 @@
         <v>41</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>230</v>
+        <v>215</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M29" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="M29" t="s" s="2">
+        <v>218</v>
+      </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
         <v>40</v>
@@ -4308,13 +4370,13 @@
         <v>40</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>40</v>
+        <v>219</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>40</v>
+        <v>220</v>
       </c>
       <c r="Z29" t="s" s="2">
         <v>40</v>
@@ -4332,13 +4394,13 @@
         <v>40</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>229</v>
+        <v>214</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>40</v>
@@ -4347,10 +4409,10 @@
         <v>62</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>233</v>
+        <v>221</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>234</v>
+        <v>222</v>
       </c>
       <c r="AL29" t="s" s="2">
         <v>40</v>
@@ -4359,9 +4421,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4375,7 +4437,7 @@
         <v>50</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>40</v>
@@ -4384,17 +4446,15 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>236</v>
+        <v>215</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>237</v>
+        <v>224</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>239</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
         <v>40</v>
@@ -4419,29 +4479,31 @@
         <v>40</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>40</v>
+        <v>227</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="AB30" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>40</v>
+      </c>
       <c r="AC30" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>214</v>
+        <v>40</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4456,37 +4518,35 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>240</v>
+        <v>40</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>241</v>
+        <v>228</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="AM30" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="B31" t="s" s="2">
-        <v>243</v>
-      </c>
+        <v>230</v>
+      </c>
+      <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F31" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>40</v>
@@ -4495,16 +4555,16 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
@@ -4530,34 +4590,32 @@
         <v>40</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB31" s="2"/>
       <c r="AC31" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>50</v>
@@ -4569,13 +4627,13 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>40</v>
@@ -4583,10 +4641,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C32" t="s" s="2">
         <v>40</v>
@@ -4608,16 +4666,16 @@
         <v>51</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
@@ -4643,13 +4701,13 @@
         <v>40</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>40</v>
+        <v>116</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>40</v>
+        <v>235</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>40</v>
+        <v>236</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>40</v>
@@ -4667,10 +4725,10 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>50</v>
@@ -4682,13 +4740,13 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>40</v>
@@ -4696,9 +4754,11 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>247</v>
-      </c>
-      <c r="B33" s="2"/>
+        <v>230</v>
+      </c>
+      <c r="B33" t="s" s="2">
+        <v>241</v>
+      </c>
       <c r="C33" t="s" s="2">
         <v>40</v>
       </c>
@@ -4719,15 +4779,17 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="M33" s="2"/>
+        <v>233</v>
+      </c>
+      <c r="M33" t="s" s="2">
+        <v>234</v>
+      </c>
       <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
         <v>40</v>
@@ -4776,10 +4838,10 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>247</v>
+        <v>230</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>50</v>
@@ -4791,13 +4853,13 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>40</v>
+        <v>237</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>40</v>
@@ -4805,7 +4867,7 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4813,7 +4875,7 @@
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F34" t="s" s="2">
         <v>50</v>
@@ -4825,16 +4887,16 @@
         <v>40</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4885,10 +4947,10 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>50</v>
@@ -4900,21 +4962,21 @@
         <v>62</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>40</v>
+        <v>247</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>256</v>
+        <v>248</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>257</v>
+        <v>249</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>40</v>
+        <v>250</v>
       </c>
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -4925,7 +4987,7 @@
         <v>41</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>40</v>
@@ -4934,20 +4996,18 @@
         <v>40</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>40</v>
@@ -4996,13 +5056,13 @@
         <v>40</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH35" t="s" s="2">
         <v>40</v>
@@ -5011,10 +5071,10 @@
         <v>62</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>40</v>
+        <v>255</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>40</v>
@@ -5025,7 +5085,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5036,7 +5096,7 @@
         <v>41</v>
       </c>
       <c r="F36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
         <v>40</v>
@@ -5045,19 +5105,19 @@
         <v>40</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>191</v>
+        <v>258</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
@@ -5083,37 +5143,35 @@
         <v>40</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>116</v>
+        <v>40</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>268</v>
+        <v>40</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>269</v>
+        <v>40</v>
       </c>
       <c r="Z36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB36" t="s" s="2">
-        <v>40</v>
-      </c>
+        <v>174</v>
+      </c>
+      <c r="AB36" s="2"/>
       <c r="AC36" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>40</v>
+        <v>175</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
         <v>40</v>
@@ -5122,23 +5180,25 @@
         <v>62</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>40</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="B37" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B37" t="s" s="2">
+        <v>265</v>
+      </c>
       <c r="C37" t="s" s="2">
         <v>40</v>
       </c>
@@ -5147,28 +5207,28 @@
         <v>41</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H37" t="s" s="2">
         <v>40</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>277</v>
+        <v>261</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5218,13 +5278,13 @@
         <v>40</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>40</v>
@@ -5233,13 +5293,13 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>40</v>
@@ -5247,9 +5307,11 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="B38" s="2"/>
+        <v>257</v>
+      </c>
+      <c r="B38" t="s" s="2">
+        <v>267</v>
+      </c>
       <c r="C38" t="s" s="2">
         <v>40</v>
       </c>
@@ -5258,7 +5320,7 @@
         <v>41</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>51</v>
@@ -5267,18 +5329,20 @@
         <v>40</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>282</v>
+        <v>259</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="M38" s="2"/>
+        <v>260</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>261</v>
+      </c>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>40</v>
@@ -5327,13 +5391,13 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>40</v>
@@ -5342,13 +5406,13 @@
         <v>62</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>40</v>
+        <v>264</v>
       </c>
       <c r="AM38" t="s" s="2">
         <v>40</v>
@@ -5356,7 +5420,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5367,7 +5431,7 @@
         <v>41</v>
       </c>
       <c r="F39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
         <v>51</v>
@@ -5376,20 +5440,18 @@
         <v>40</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>287</v>
+        <v>266</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>288</v>
+        <v>270</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>290</v>
-      </c>
+        <v>271</v>
+      </c>
+      <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>40</v>
@@ -5438,13 +5500,13 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>286</v>
+        <v>269</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>40</v>
@@ -5456,17 +5518,679 @@
         <v>40</v>
       </c>
       <c r="AK39" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="B40" s="2"/>
+      <c r="C40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="G40" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J40" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="K40" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="L40" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P40" s="2"/>
+      <c r="Q40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE40" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="AF40" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK40" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AM40" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" hidden="true">
+      <c r="A41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="B41" s="2"/>
+      <c r="C41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J41" t="s" s="2">
+        <v>281</v>
+      </c>
+      <c r="K41" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="L41" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="M41" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="N41" s="2"/>
+      <c r="O41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P41" s="2"/>
+      <c r="Q41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE41" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="AF41" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG41" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI41" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK41" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AL41" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM41" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" hidden="true">
+      <c r="A42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="B42" s="2"/>
+      <c r="C42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J42" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="K42" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="L42" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="M42" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="N42" s="2"/>
+      <c r="O42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P42" s="2"/>
+      <c r="Q42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W42" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="X42" t="s" s="2">
+        <v>290</v>
+      </c>
+      <c r="Y42" t="s" s="2">
         <v>291</v>
       </c>
-      <c r="AL39" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM39" t="s" s="2">
+      <c r="Z42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE42" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AF42" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM42" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" hidden="true">
+      <c r="A43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D43" s="2"/>
+      <c r="E43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="H43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J43" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="K43" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="L43" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="M43" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="N43" s="2"/>
+      <c r="O43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P43" s="2"/>
+      <c r="Q43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE43" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="AF43" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG43" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH43" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI43" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AK43" t="s" s="2">
+        <v>301</v>
+      </c>
+      <c r="AL43" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B44" s="2"/>
+      <c r="C44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D44" s="2"/>
+      <c r="E44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G44" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J44" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="K44" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="L44" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P44" s="2"/>
+      <c r="Q44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE44" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="AF44" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG44" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI44" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
+        <v>306</v>
+      </c>
+      <c r="AK44" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AL44" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM44" t="s" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="F45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="G45" t="s" s="2">
+        <v>51</v>
+      </c>
+      <c r="H45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J45" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="K45" t="s" s="2">
+        <v>310</v>
+      </c>
+      <c r="L45" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="M45" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="N45" s="2"/>
+      <c r="O45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="P45" s="2"/>
+      <c r="Q45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="R45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="S45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="T45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="U45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="V45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="W45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="X45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Y45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="Z45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AA45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE45" t="s" s="2">
+        <v>308</v>
+      </c>
+      <c r="AF45" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AG45" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="AH45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AI45" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AJ45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK45" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="AL45" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM45" t="s" s="2">
         <v>40</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM39">
+  <autoFilter ref="A1:AM45">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -5476,7 +6200,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI38">
+  <conditionalFormatting sqref="A2:AI44">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
